--- a/Data/Raw Electoral Data/Baja California Sur - 1999, 2002, 2005, 2008, 2011,2015,2018/BCS_2018.xlsx
+++ b/Data/Raw Electoral Data/Baja California Sur - 1999, 2002, 2005, 2008, 2011,2015,2018/BCS_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador\Desktop\Political Violence SAP\Panel Update\Baja California Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador\Dropbox\Salvador Ascencio\Update Precincts\Baja California Sur\Municipal 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E628C0-C0F3-465E-8295-D4373D7DBF46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555D21C-E79A-4F3F-BE22-80557BCCCF7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1110" windowWidth="21855" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21720" windowHeight="8205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:R979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N125" sqref="N125"/>
